--- a/Hybrid_Framework/FileOutput/hybridResult.xlsx
+++ b/Hybrid_Framework/FileOutput/hybridResult.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Testing\Live_Project\Hybrid_Framework\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F198DD4-B7E0-4337-9EFE-A31A429AF272}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C6C77B-1957-45AC-BC86-78FEE314FC2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="209" x14ac:knownFonts="1">
+  <fonts count="207" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -543,21 +543,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1F1F1F"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Cambria"/>
       <family val="1"/>
     </font>
@@ -2018,9 +2003,8 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="214">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2057,9 +2041,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -2259,11 +2245,8 @@
     <xf numFmtId="0" fontId="204" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="205" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="207" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="208" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2544,7 +2527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -4166,8 +4149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F4FA977-0FBC-4018-8862-7EDE1FA702E3}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A19" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="25.2" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4175,7 +4158,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" style="2" width="35.21875"/>
     <col min="2" max="2" bestFit="true" customWidth="true" style="2" width="16.6640625"/>
     <col min="3" max="3" bestFit="true" customWidth="true" style="2" width="16.21875"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="37.0"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" style="2" width="42.109375"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="2" width="30.44140625"/>
     <col min="6" max="6" bestFit="true" customWidth="true" style="2" width="8.0"/>
     <col min="7" max="16384" style="2" width="8.88671875"/>
@@ -4822,10 +4805,8 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E21" r:id="rId1" xr:uid="{36708536-65F6-4672-88D5-1B880004B177}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
